--- a/Waste/A1_Outputs/A-O_Demand_COMPLETED.xlsx
+++ b/Waste/A1_Outputs/A-O_Demand_COMPLETED.xlsx
@@ -707,49 +707,49 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="U3">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
       <c r="V3">
-        <v>0.008999999999999999</v>
+        <v>0.018</v>
       </c>
       <c r="W3">
-        <v>0.012</v>
+        <v>0.024</v>
       </c>
       <c r="X3">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="Y3">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -1255,13 +1255,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907E49FB-5516-4444-B59F-F98EC081B2C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7D484B-E66D-45AB-BC3C-BFA656ED3A29}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F071D4C7-3E90-48FA-BCDD-E83E2495F2BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8804BDAC-28CE-403A-AD26-3F5F842F0E4C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49047F9F-3A56-4589-A123-2F6A848DB58F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B485CB4-5262-4D44-8446-8186E51A347F}"/>
 </file>